--- a/biology/Zoologie/Refuge_faunique_national_Chassahowitzka/Refuge_faunique_national_Chassahowitzka.xlsx
+++ b/biology/Zoologie/Refuge_faunique_national_Chassahowitzka/Refuge_faunique_national_Chassahowitzka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les 125 km² du Chassahowitzka National Wildlife Refuge font partie du National Wildlife Refuge System des États-Unis, situé sur la côte ouest de la Floride, à environ 112 km au nord de St-Petersburg. Il est célèbre comme site d'hivernage du sud pour la population réintroduite de grues blanches. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le complexe national de refuge faunique de Chassahowitzka a été remplacé par le complexe de Crystal River, dont le siège est à Crystal River, en Floride[1], et se compose de portions de la rivière Chassahowitzka et de Crystal River, ainsi que de ce que l'on appelle les refuges de Tampa Bay: Egmont Key, Passage Key et Pinellas. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le complexe national de refuge faunique de Chassahowitzka a été remplacé par le complexe de Crystal River, dont le siège est à Crystal River, en Floride, et se compose de portions de la rivière Chassahowitzka et de Crystal River, ainsi que de ce que l'on appelle les refuges de Tampa Bay: Egmont Key, Passage Key et Pinellas. 
 La zone sauvage de Chassahowitzka fait partie du refuge et se compose de 95 km², soit 76,4% de sa superficie totale. Seule une partie au nord-est n'est pas désignée comme Wilderness. 
 En 2001, le Partenariat oriental de Grue Blanche a élevé des poussins de grue blanche (Grus americana) dans la réserve faunique nationale Necedah du Wisconsin, puis les a guidés vers le nord-ouest de Chassahowitzka pour l'hiver. Malgré la forte mortalité due aux ouragans en 2007, la réintroduction a réussi et, en 2010, jusqu'à 105 oiseaux migrateurs avaient été établis dans l'est des États-Unis pour la première fois depuis plus de 100 ans.  
 </t>
